--- a/xlsxanalize/scr/data/12.07-13.07.2017 (сутки) отчет Бар лесной .xlsx
+++ b/xlsxanalize/scr/data/12.07-13.07.2017 (сутки) отчет Бар лесной .xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\serg\projects\xlsxanalize\xlsxanalize\scr\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="13275" tabRatio="347"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18276" windowHeight="13272" tabRatio="347"/>
   </bookViews>
   <sheets>
     <sheet name="Бар" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -203,17 +208,17 @@
     <t>Лукьяненко</t>
   </si>
   <si>
-    <t>12.07.2017-13.07.2017 (24)</t>
+    <t>27.07.2017-28.07.2017 (24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1650,6 +1655,14 @@
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1696,7 +1709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,9 +1741,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1762,6 +1776,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1937,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1946,23 +1961,23 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,7 +1991,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="75" t="s">
         <v>54</v>
       </c>
@@ -1990,7 +2005,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2002,7 +2017,7 @@
       </c>
       <c r="I3" s="85"/>
     </row>
-    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1">
+    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>15</v>
@@ -2027,7 +2042,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -2054,7 +2069,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1">
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2081,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="49" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="76" t="s">
         <v>55</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="50" t="s">
         <v>1</v>
       </c>
@@ -2170,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2196,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="50" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="51" t="s">
         <v>29</v>
       </c>
@@ -2248,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>3</v>
       </c>
@@ -2274,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
         <v>6</v>
       </c>
@@ -2352,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="41"/>
       <c r="D18" s="32"/>
@@ -2362,7 +2377,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
         <v>33</v>
       </c>
@@ -2414,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
         <v>28</v>
       </c>
@@ -2440,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="50" t="s">
         <v>32</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +2508,7 @@
       </c>
       <c r="J23" s="83"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="41"/>
       <c r="D24" s="32"/>
@@ -2503,7 +2518,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="50" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="50" t="s">
         <v>42</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="52"/>
       <c r="C27" s="42"/>
       <c r="D27" s="32"/>
@@ -2565,7 +2580,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="50" t="s">
         <v>41</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="79" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="53" t="s">
         <v>43</v>
       </c>
@@ -2643,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="54" t="s">
         <v>43</v>
       </c>
@@ -2669,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="54" t="s">
         <v>43</v>
       </c>
@@ -2695,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
         <v>46</v>
       </c>
@@ -2721,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>46</v>
       </c>
@@ -2747,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>48</v>
       </c>
@@ -2773,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="55" t="s">
         <v>50</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="45"/>
       <c r="D37" s="32"/>
@@ -2809,7 +2824,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="50" t="s">
         <v>39</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="50" t="s">
         <v>23</v>
       </c>
@@ -2861,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="50" t="s">
         <v>53</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="50" t="s">
         <v>58</v>
       </c>
@@ -2913,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="50" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="50" t="s">
         <v>11</v>
       </c>
@@ -2965,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="50" t="s">
         <v>35</v>
       </c>
@@ -2991,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="50" t="s">
         <v>12</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="45"/>
       <c r="D46" s="32"/>
@@ -3027,7 +3042,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="50" t="s">
         <v>13</v>
       </c>
@@ -3053,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="50" t="s">
         <v>40</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" s="50" t="s">
         <v>37</v>
       </c>
@@ -3105,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="59" t="s">
         <v>52</v>
       </c>
@@ -3131,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75" thickBot="1">
+    <row r="51" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="56" t="s">
         <v>14</v>
       </c>
@@ -3149,13 +3164,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="I54" t="s">
         <v>36</v>
       </c>
@@ -3183,12 +3198,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
